--- a/biology/Botanique/Madame_Vincent_Auriol/Madame_Vincent_Auriol.xlsx
+++ b/biology/Botanique/Madame_Vincent_Auriol/Madame_Vincent_Auriol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Madame Vincent Auriol' est un cultivar de rosier hybride de thé obtenu avant 1948 par Mme Charles Mallerin[1] et mis au commerce en 1951 par URS-Meilland. Il rend hommage à l'épouse du président de la République française Vincent Auriol (président de 1947 à 1954), née Michelle Aucouturier (1896-1979).
+'Madame Vincent Auriol' est un cultivar de rosier hybride de thé obtenu avant 1948 par Mme Charles Mallerin et mis au commerce en 1951 par URS-Meilland. Il rend hommage à l'épouse du président de la République française Vincent Auriol (président de 1947 à 1954), née Michelle Aucouturier (1896-1979).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette rose présente un long bouton qui donne naissance à une grosse fleur double en forme de pivoine de couleur corail doré[2]. Elle devient plus rose au fur et à mesure autour d'un cœur aux nuances dorées et elle est légèrement parfumée. Son buisson s'élève à 70 cm. Son feuillage est vernissé et vigoureux[3], son bois peu épineux[2].  
-Cette rose à la floraison remontante[4] a été très remarquée à sa sortie et a eu une belle notoriété tant en France qu'à l'étranger dans les années 1950, grâce à son coloris raffiné et sa forme de pivoine japonaise; mais elle est quelque peu oubliée aujourd'hui. Elle est issue du pollen de 'Trylon' et d'un semis non nommé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette rose présente un long bouton qui donne naissance à une grosse fleur double en forme de pivoine de couleur corail doré. Elle devient plus rose au fur et à mesure autour d'un cœur aux nuances dorées et elle est légèrement parfumée. Son buisson s'élève à 70 cm. Son feuillage est vernissé et vigoureux, son bois peu épineux.  
+Cette rose à la floraison remontante a été très remarquée à sa sortie et a eu une belle notoriété tant en France qu'à l'étranger dans les années 1950, grâce à son coloris raffiné et sa forme de pivoine japonaise; mais elle est quelque peu oubliée aujourd'hui. Elle est issue du pollen de 'Trylon' et d'un semis non nommé.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1948: médaille d'or de la roseraie de Bagatelle[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1948: médaille d'or de la roseraie de Bagatelle.</t>
         </is>
       </c>
     </row>
